--- a/luban/卡牌表_资源流.xlsx
+++ b/luban/卡牌表_资源流.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="494" activeTab="1"/>
+    <workbookView windowWidth="18345" windowHeight="7215" tabRatio="494" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Card01" sheetId="4" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -226,10 +226,49 @@
     <t>珍珠的低语</t>
   </si>
   <si>
-    <t>该城市可放置卡牌上限+1，每个城市最多一张，存在该教条的城市，每消耗1点信仰，转化该城市1名信徒</t>
+    <t>该城市可放置卡牌上限+1，每个城市最多一张，存在该教条的城市，每消耗1点信仰，转化该城市50名信徒</t>
   </si>
   <si>
     <t>予我所求，予你所愿，凡有所想，皆可实现。</t>
+  </si>
+  <si>
+    <t>耶兰多的低语</t>
+  </si>
+  <si>
+    <t>场地垃圾教条牌</t>
+  </si>
+  <si>
+    <t>玩家每打出10张卡牌增加1%的发生几率，每消耗100信仰判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），在该教条存在的时候，危险值每增加1，理智值回复0.2</t>
+  </si>
+  <si>
+    <t>唤我于心，摒弃幻象，以我之名，拔除虚妄。</t>
+  </si>
+  <si>
+    <t>黄金河流的神刀</t>
+  </si>
+  <si>
+    <t>手牌垃圾事件牌</t>
+  </si>
+  <si>
+    <t>玩家每打出1张卡牌增加0.3%的发生几率，每次抽卡进行判定，判定成功下次抽卡时所有卡牌替换成黄金河流的神刀。持有该卡牌时抽卡强制只有2张，无视所有教条效果；该牌只能打出在有库苏恩的拥抱教条的城市，之后去掉库苏恩的拥抱</t>
+  </si>
+  <si>
+    <t>飞水螅的栖息地</t>
+  </si>
+  <si>
+    <t>手牌垃圾教条牌</t>
+  </si>
+  <si>
+    <t>玩家每抽1次卡增加2%的发生几率，每次打出卡牌时进行判定，判定成功时在手牌生成该事件。持有该卡牌时每1s信仰值减少5，该牌只能打出在沙漠城市，打出后清空该城市的教条牌且无法再放置其他教条牌</t>
+  </si>
+  <si>
+    <t>食梦貘的躯干</t>
+  </si>
+  <si>
+    <t>遗物牌</t>
+  </si>
+  <si>
+    <t>每次抽牌有0.8%的几率抽到，每条航线增加0.02%的几率，手牌中持有该牌时抽卡费用减半</t>
   </si>
 </sst>
 </file>
@@ -877,7 +916,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,6 +925,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1236,89 +1281,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1332,22 +1377,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:5">
+    <row r="1" ht="40.5" spans="1:5">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -1381,7 +1426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="27" spans="1:5">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1415,7 +1460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="27" spans="1:5">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1466,7 +1511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:5">
+    <row r="8" ht="40.5" spans="1:5">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1483,7 +1528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="27" spans="1:5">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1515,6 +1560,65 @@
       </c>
       <c r="E10" s="2" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:5">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" ht="54" spans="1:4">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:4">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:4">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
